--- a/Lease_Contract_Extraction_Phase_I_2.0/Data/Final Title report _Template.xlsx
+++ b/Lease_Contract_Extraction_Phase_I_2.0/Data/Final Title report _Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I_2.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43DA202-66AE-4B57-A2C7-9162D0DD7E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6D5AD-FF47-48BB-B175-27BA63455DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="45" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Fields</t>
   </si>
@@ -175,13 +176,118 @@
   </si>
   <si>
     <t>chereck</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>What is the Plot Number</t>
+  </si>
+  <si>
+    <t>What is the property address</t>
+  </si>
+  <si>
+    <t>How is the property described on the plan</t>
+  </si>
+  <si>
+    <t>What is the Ground Rent value</t>
+  </si>
+  <si>
+    <t>What is the Title Number in this agreement</t>
+  </si>
+  <si>
+    <t>Name and contact information of the landlord involved</t>
+  </si>
+  <si>
+    <t>What is the term of this agreement</t>
+  </si>
+  <si>
+    <t>What is the name of the Management Company and their details under 'Parties to the lease'</t>
+  </si>
+  <si>
+    <t>Which clause within the agreement outlines the specific rights granted for this property?</t>
+  </si>
+  <si>
+    <t>Which clause has the Rights reserved in favour of the Landlord and others</t>
+  </si>
+  <si>
+    <t>which is the chapter that involves money covenants for the tenant</t>
+  </si>
+  <si>
+    <t>which chapter includes maintaining and altering of property</t>
+  </si>
+  <si>
+    <t>which chapter includes disposals of your property</t>
+  </si>
+  <si>
+    <t>which chapter includes LANDLORD'S OBLIGATIONS RELATING TO CONSTRUCTION OF THE ESTATE</t>
+  </si>
+  <si>
+    <t>In which chapter MANAGEMENT COMPANY'S OBLIGATIONs are mentioned in this agreement</t>
+  </si>
+  <si>
+    <t>Name and contact information of the landlord involved.</t>
+  </si>
+  <si>
+    <t>Which specific residential unit is identified as "Your Property" within the estate?</t>
+  </si>
+  <si>
+    <t>How has the Parking space been described</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>what is the Gross Purchase Price</t>
+  </si>
+  <si>
+    <t>how much is the Reservation Fee</t>
+  </si>
+  <si>
+    <t>how much is the Document Fee</t>
+  </si>
+  <si>
+    <t>what is mentioned in the proportion of ground rent</t>
+  </si>
+  <si>
+    <t>what is mentioned in the tenure</t>
+  </si>
+  <si>
+    <t>When is the property ready for occupation?</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Reservation Fee paid</t>
+  </si>
+  <si>
+    <t>Document Fee payable to Developer</t>
+  </si>
+  <si>
+    <t>Incentives</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Completion Data</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +309,14 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,6 +421,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5844C-B5CF-41C2-965E-642DF23508FB}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" style="16" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -875,9 +1009,206 @@
       <c r="E22" s="17"/>
       <c r="F22" s="6"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700D58-D9B5-4B9D-A2C0-E27BF800016D}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1097,20 +1428,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f19e212e-40e5-41bf-b03d-6daae4c86d59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f19e212e-40e5-41bf-b03d-6daae4c86d59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,14 +1464,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917D1116-6642-488D-B208-EE001CE4CBC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{833B8845-20C2-4CBD-931B-373BE7008899}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1148,4 +1471,12 @@
     <ds:schemaRef ds:uri="f19e212e-40e5-41bf-b03d-6daae4c86d59"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917D1116-6642-488D-B208-EE001CE4CBC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>